--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-22.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
   <si>
     <t>League</t>
   </si>
@@ -377,306 +377,6 @@
   </si>
   <si>
     <t>Ind Medellin</t>
-  </si>
-  <si>
-    <t>33125021</t>
-  </si>
-  <si>
-    <t>33118009</t>
-  </si>
-  <si>
-    <t>33112587</t>
-  </si>
-  <si>
-    <t>33125245</t>
-  </si>
-  <si>
-    <t>33125309</t>
-  </si>
-  <si>
-    <t>33112588</t>
-  </si>
-  <si>
-    <t>33125310</t>
-  </si>
-  <si>
-    <t>33125312</t>
-  </si>
-  <si>
-    <t>33120579</t>
-  </si>
-  <si>
-    <t>33128538</t>
-  </si>
-  <si>
-    <t>33124831</t>
-  </si>
-  <si>
-    <t>33118448</t>
-  </si>
-  <si>
-    <t>33112859</t>
-  </si>
-  <si>
-    <t>33112860</t>
-  </si>
-  <si>
-    <t>33115533</t>
-  </si>
-  <si>
-    <t>33118447</t>
-  </si>
-  <si>
-    <t>33122201</t>
-  </si>
-  <si>
-    <t>33116840</t>
-  </si>
-  <si>
-    <t>33120065</t>
-  </si>
-  <si>
-    <t>33116223</t>
-  </si>
-  <si>
-    <t>1.226430850</t>
-  </si>
-  <si>
-    <t>1.226308453</t>
-  </si>
-  <si>
-    <t>1.226216138</t>
-  </si>
-  <si>
-    <t>1.226436098</t>
-  </si>
-  <si>
-    <t>1.226436008</t>
-  </si>
-  <si>
-    <t>1.226216039</t>
-  </si>
-  <si>
-    <t>1.226435918</t>
-  </si>
-  <si>
-    <t>1.226435828</t>
-  </si>
-  <si>
-    <t>1.226436205</t>
-  </si>
-  <si>
-    <t>1.226484281</t>
-  </si>
-  <si>
-    <t>1.226427501</t>
-  </si>
-  <si>
-    <t>1.226317268</t>
-  </si>
-  <si>
-    <t>1.226214894</t>
-  </si>
-  <si>
-    <t>1.226214804</t>
-  </si>
-  <si>
-    <t>1.226265612</t>
-  </si>
-  <si>
-    <t>1.226317392</t>
-  </si>
-  <si>
-    <t>1.226389550</t>
-  </si>
-  <si>
-    <t>1.226291406</t>
-  </si>
-  <si>
-    <t>1.226354699</t>
-  </si>
-  <si>
-    <t>1.226275350</t>
-  </si>
-  <si>
-    <t>1.226430895</t>
-  </si>
-  <si>
-    <t>1.226308498</t>
-  </si>
-  <si>
-    <t>1.226216186</t>
-  </si>
-  <si>
-    <t>1.226436143</t>
-  </si>
-  <si>
-    <t>1.226436053</t>
-  </si>
-  <si>
-    <t>1.226216084</t>
-  </si>
-  <si>
-    <t>1.226435963</t>
-  </si>
-  <si>
-    <t>1.226435873</t>
-  </si>
-  <si>
-    <t>1.226436208</t>
-  </si>
-  <si>
-    <t>1.226484326</t>
-  </si>
-  <si>
-    <t>1.226427546</t>
-  </si>
-  <si>
-    <t>1.226317313</t>
-  </si>
-  <si>
-    <t>1.226214939</t>
-  </si>
-  <si>
-    <t>1.226214849</t>
-  </si>
-  <si>
-    <t>1.226265657</t>
-  </si>
-  <si>
-    <t>1.226317437</t>
-  </si>
-  <si>
-    <t>1.226389595</t>
-  </si>
-  <si>
-    <t>1.226291451</t>
-  </si>
-  <si>
-    <t>1.226354744</t>
-  </si>
-  <si>
-    <t>1.226275395</t>
-  </si>
-  <si>
-    <t>1.226430934</t>
-  </si>
-  <si>
-    <t>1.226308537</t>
-  </si>
-  <si>
-    <t>1.226216227</t>
-  </si>
-  <si>
-    <t>1.226436182</t>
-  </si>
-  <si>
-    <t>1.226436092</t>
-  </si>
-  <si>
-    <t>1.226216123</t>
-  </si>
-  <si>
-    <t>1.226436002</t>
-  </si>
-  <si>
-    <t>1.226435912</t>
-  </si>
-  <si>
-    <t>1.226436252</t>
-  </si>
-  <si>
-    <t>1.226484365</t>
-  </si>
-  <si>
-    <t>1.226427585</t>
-  </si>
-  <si>
-    <t>1.226317352</t>
-  </si>
-  <si>
-    <t>1.226214978</t>
-  </si>
-  <si>
-    <t>1.226214888</t>
-  </si>
-  <si>
-    <t>1.226265696</t>
-  </si>
-  <si>
-    <t>1.226317476</t>
-  </si>
-  <si>
-    <t>1.226389634</t>
-  </si>
-  <si>
-    <t>1.226291490</t>
-  </si>
-  <si>
-    <t>1.226354783</t>
-  </si>
-  <si>
-    <t>1.226275434</t>
-  </si>
-  <si>
-    <t>1.226430859</t>
-  </si>
-  <si>
-    <t>1.226308462</t>
-  </si>
-  <si>
-    <t>1.226216149</t>
-  </si>
-  <si>
-    <t>1.226436107</t>
-  </si>
-  <si>
-    <t>1.226436017</t>
-  </si>
-  <si>
-    <t>1.226216048</t>
-  </si>
-  <si>
-    <t>1.226435927</t>
-  </si>
-  <si>
-    <t>1.226435837</t>
-  </si>
-  <si>
-    <t>1.226436253</t>
-  </si>
-  <si>
-    <t>1.226484290</t>
-  </si>
-  <si>
-    <t>1.226427510</t>
-  </si>
-  <si>
-    <t>1.226317277</t>
-  </si>
-  <si>
-    <t>1.226214903</t>
-  </si>
-  <si>
-    <t>1.226214813</t>
-  </si>
-  <si>
-    <t>1.226265621</t>
-  </si>
-  <si>
-    <t>1.226317401</t>
-  </si>
-  <si>
-    <t>1.226389559</t>
-  </si>
-  <si>
-    <t>1.226291415</t>
-  </si>
-  <si>
-    <t>1.226354708</t>
-  </si>
-  <si>
-    <t>1.226275359</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1109,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>121</v>
+      <c r="BF2">
+        <v>33125021</v>
       </c>
       <c r="BG2">
         <v>10748838</v>
@@ -1421,17 +1121,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>201</v>
+      <c r="BJ2">
+        <v>1.22643085</v>
+      </c>
+      <c r="BK2">
+        <v>1.226430895</v>
+      </c>
+      <c r="BL2">
+        <v>1.226430934</v>
+      </c>
+      <c r="BM2">
+        <v>1.226430859</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1606,8 +1306,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>122</v>
+      <c r="BF3">
+        <v>33118009</v>
       </c>
       <c r="BG3">
         <v>2740568</v>
@@ -1618,17 +1318,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>202</v>
+      <c r="BJ3">
+        <v>1.226308453</v>
+      </c>
+      <c r="BK3">
+        <v>1.226308498</v>
+      </c>
+      <c r="BL3">
+        <v>1.226308537</v>
+      </c>
+      <c r="BM3">
+        <v>1.226308462</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1803,8 +1503,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>123</v>
+      <c r="BF4">
+        <v>33112587</v>
       </c>
       <c r="BG4">
         <v>44796</v>
@@ -1815,17 +1515,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>203</v>
+      <c r="BJ4">
+        <v>1.226216138</v>
+      </c>
+      <c r="BK4">
+        <v>1.226216186</v>
+      </c>
+      <c r="BL4">
+        <v>1.226216227</v>
+      </c>
+      <c r="BM4">
+        <v>1.226216149</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2000,8 +1700,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>124</v>
+      <c r="BF5">
+        <v>33125245</v>
       </c>
       <c r="BG5">
         <v>496950</v>
@@ -2012,17 +1712,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>204</v>
+      <c r="BJ5">
+        <v>1.226436098</v>
+      </c>
+      <c r="BK5">
+        <v>1.226436143</v>
+      </c>
+      <c r="BL5">
+        <v>1.226436182</v>
+      </c>
+      <c r="BM5">
+        <v>1.226436107</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2197,8 +1897,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>125</v>
+      <c r="BF6">
+        <v>33125309</v>
       </c>
       <c r="BG6">
         <v>473964</v>
@@ -2209,17 +1909,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>145</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>205</v>
+      <c r="BJ6">
+        <v>1.226436008</v>
+      </c>
+      <c r="BK6">
+        <v>1.226436053</v>
+      </c>
+      <c r="BL6">
+        <v>1.226436092</v>
+      </c>
+      <c r="BM6">
+        <v>1.226436017</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2394,8 +2094,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>126</v>
+      <c r="BF7">
+        <v>33112588</v>
       </c>
       <c r="BG7">
         <v>77586</v>
@@ -2406,17 +2106,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>146</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>186</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>206</v>
+      <c r="BJ7">
+        <v>1.226216039</v>
+      </c>
+      <c r="BK7">
+        <v>1.226216084</v>
+      </c>
+      <c r="BL7">
+        <v>1.226216123</v>
+      </c>
+      <c r="BM7">
+        <v>1.226216048</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2591,8 +2291,8 @@
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>127</v>
+      <c r="BF8">
+        <v>33125310</v>
       </c>
       <c r="BG8">
         <v>269794</v>
@@ -2603,17 +2303,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>207</v>
+      <c r="BJ8">
+        <v>1.226435918</v>
+      </c>
+      <c r="BK8">
+        <v>1.226435963</v>
+      </c>
+      <c r="BL8">
+        <v>1.226436002</v>
+      </c>
+      <c r="BM8">
+        <v>1.226435927</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2788,8 +2488,8 @@
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>128</v>
+      <c r="BF9">
+        <v>33125312</v>
       </c>
       <c r="BG9">
         <v>2225922</v>
@@ -2800,17 +2500,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>148</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>188</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>208</v>
+      <c r="BJ9">
+        <v>1.226435828</v>
+      </c>
+      <c r="BK9">
+        <v>1.226435873</v>
+      </c>
+      <c r="BL9">
+        <v>1.226435912</v>
+      </c>
+      <c r="BM9">
+        <v>1.226435837</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2985,8 +2685,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>129</v>
+      <c r="BF10">
+        <v>33120579</v>
       </c>
       <c r="BG10">
         <v>42710298</v>
@@ -2997,17 +2697,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>149</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>209</v>
+      <c r="BJ10">
+        <v>1.226436205</v>
+      </c>
+      <c r="BK10">
+        <v>1.226436208</v>
+      </c>
+      <c r="BL10">
+        <v>1.226436252</v>
+      </c>
+      <c r="BM10">
+        <v>1.226436253</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3182,8 +2882,8 @@
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11" t="s">
-        <v>130</v>
+      <c r="BF11">
+        <v>33128538</v>
       </c>
       <c r="BG11">
         <v>180586</v>
@@ -3194,17 +2894,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>150</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>210</v>
+      <c r="BJ11">
+        <v>1.226484281</v>
+      </c>
+      <c r="BK11">
+        <v>1.226484326</v>
+      </c>
+      <c r="BL11">
+        <v>1.226484365</v>
+      </c>
+      <c r="BM11">
+        <v>1.22648429</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3379,8 +3079,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>131</v>
+      <c r="BF12">
+        <v>33124831</v>
       </c>
       <c r="BG12">
         <v>21897306</v>
@@ -3391,17 +3091,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>171</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>211</v>
+      <c r="BJ12">
+        <v>1.226427501</v>
+      </c>
+      <c r="BK12">
+        <v>1.226427546</v>
+      </c>
+      <c r="BL12">
+        <v>1.226427585</v>
+      </c>
+      <c r="BM12">
+        <v>1.22642751</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3576,8 +3276,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>132</v>
+      <c r="BF13">
+        <v>33118448</v>
       </c>
       <c r="BG13">
         <v>392220</v>
@@ -3588,17 +3288,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>192</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>212</v>
+      <c r="BJ13">
+        <v>1.226317268</v>
+      </c>
+      <c r="BK13">
+        <v>1.226317313</v>
+      </c>
+      <c r="BL13">
+        <v>1.226317352</v>
+      </c>
+      <c r="BM13">
+        <v>1.226317277</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3773,8 +3473,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>133</v>
+      <c r="BF14">
+        <v>33112859</v>
       </c>
       <c r="BG14">
         <v>298591</v>
@@ -3785,17 +3485,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>173</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>193</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>213</v>
+      <c r="BJ14">
+        <v>1.226214894</v>
+      </c>
+      <c r="BK14">
+        <v>1.226214939</v>
+      </c>
+      <c r="BL14">
+        <v>1.226214978</v>
+      </c>
+      <c r="BM14">
+        <v>1.226214903</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -3970,8 +3670,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>134</v>
+      <c r="BF15">
+        <v>33112860</v>
       </c>
       <c r="BG15">
         <v>385761</v>
@@ -3982,17 +3682,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>174</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>194</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>214</v>
+      <c r="BJ15">
+        <v>1.226214804</v>
+      </c>
+      <c r="BK15">
+        <v>1.226214849</v>
+      </c>
+      <c r="BL15">
+        <v>1.226214888</v>
+      </c>
+      <c r="BM15">
+        <v>1.226214813</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4167,8 +3867,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>135</v>
+      <c r="BF16">
+        <v>33115533</v>
       </c>
       <c r="BG16">
         <v>4064631</v>
@@ -4179,17 +3879,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>175</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>215</v>
+      <c r="BJ16">
+        <v>1.226265612</v>
+      </c>
+      <c r="BK16">
+        <v>1.226265657</v>
+      </c>
+      <c r="BL16">
+        <v>1.226265696</v>
+      </c>
+      <c r="BM16">
+        <v>1.226265621</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4364,8 +4064,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>136</v>
+      <c r="BF17">
+        <v>33118447</v>
       </c>
       <c r="BG17">
         <v>38594512</v>
@@ -4376,17 +4076,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>196</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>216</v>
+      <c r="BJ17">
+        <v>1.226317392</v>
+      </c>
+      <c r="BK17">
+        <v>1.226317437</v>
+      </c>
+      <c r="BL17">
+        <v>1.226317476</v>
+      </c>
+      <c r="BM17">
+        <v>1.226317401</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4561,8 +4261,8 @@
       <c r="BE18">
         <v>1000</v>
       </c>
-      <c r="BF18" t="s">
-        <v>137</v>
+      <c r="BF18">
+        <v>33122201</v>
       </c>
       <c r="BG18">
         <v>5271439</v>
@@ -4573,17 +4273,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>177</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>197</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>217</v>
+      <c r="BJ18">
+        <v>1.22638955</v>
+      </c>
+      <c r="BK18">
+        <v>1.226389595</v>
+      </c>
+      <c r="BL18">
+        <v>1.226389634</v>
+      </c>
+      <c r="BM18">
+        <v>1.226389559</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4758,8 +4458,8 @@
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>138</v>
+      <c r="BF19">
+        <v>33116840</v>
       </c>
       <c r="BG19">
         <v>2794560</v>
@@ -4770,17 +4470,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>158</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>178</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>198</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>218</v>
+      <c r="BJ19">
+        <v>1.226291406</v>
+      </c>
+      <c r="BK19">
+        <v>1.226291451</v>
+      </c>
+      <c r="BL19">
+        <v>1.22629149</v>
+      </c>
+      <c r="BM19">
+        <v>1.226291415</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4955,8 +4655,8 @@
       <c r="BE20">
         <v>1000</v>
       </c>
-      <c r="BF20" t="s">
-        <v>139</v>
+      <c r="BF20">
+        <v>33120065</v>
       </c>
       <c r="BG20">
         <v>9195442</v>
@@ -4967,17 +4667,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>179</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>219</v>
+      <c r="BJ20">
+        <v>1.226354699</v>
+      </c>
+      <c r="BK20">
+        <v>1.226354744</v>
+      </c>
+      <c r="BL20">
+        <v>1.226354783</v>
+      </c>
+      <c r="BM20">
+        <v>1.226354708</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -4997,13 +4697,13 @@
         <v>120</v>
       </c>
       <c r="F21">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G21">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H21">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I21">
         <v>4.8</v>
@@ -5012,148 +4712,148 @@
         <v>3.25</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L21">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="M21">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="N21">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="O21">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="P21">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q21">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="T21">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="U21">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="V21">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W21">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X21">
-        <v>6.4</v>
+        <v>27</v>
       </c>
       <c r="Y21">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z21">
+        <v>17.5</v>
+      </c>
+      <c r="AA21">
+        <v>980</v>
+      </c>
+      <c r="AB21">
+        <v>6.6</v>
+      </c>
+      <c r="AC21">
         <v>7.4</v>
       </c>
-      <c r="AA21">
-        <v>120</v>
-      </c>
-      <c r="AB21">
-        <v>6.4</v>
-      </c>
-      <c r="AC21">
-        <v>7.8</v>
-      </c>
       <c r="AD21">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE21">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF21">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH21">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="AI21">
         <v>75</v>
       </c>
       <c r="AJ21">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="AK21">
+        <v>11.5</v>
+      </c>
+      <c r="AL21">
+        <v>10</v>
+      </c>
+      <c r="AM21">
+        <v>11</v>
+      </c>
+      <c r="AN21">
+        <v>21</v>
+      </c>
+      <c r="AO21">
+        <v>24</v>
+      </c>
+      <c r="AP21">
+        <v>70</v>
+      </c>
+      <c r="AQ21">
+        <v>110</v>
+      </c>
+      <c r="AR21">
+        <v>21</v>
+      </c>
+      <c r="AS21">
+        <v>24</v>
+      </c>
+      <c r="AT21">
+        <v>23</v>
+      </c>
+      <c r="AU21">
+        <v>980</v>
+      </c>
+      <c r="AV21">
+        <v>42</v>
+      </c>
+      <c r="AW21">
+        <v>70</v>
+      </c>
+      <c r="AX21">
+        <v>100</v>
+      </c>
+      <c r="AY21">
+        <v>980</v>
+      </c>
+      <c r="AZ21">
+        <v>10.5</v>
+      </c>
+      <c r="BA21">
+        <v>980</v>
+      </c>
+      <c r="BB21">
         <v>12.5</v>
       </c>
-      <c r="AL21">
-        <v>4.7</v>
-      </c>
-      <c r="AM21">
-        <v>11.5</v>
-      </c>
-      <c r="AN21">
-        <v>18</v>
-      </c>
-      <c r="AO21">
-        <v>980</v>
-      </c>
-      <c r="AP21">
-        <v>7.2</v>
-      </c>
-      <c r="AQ21">
-        <v>95</v>
-      </c>
-      <c r="AR21">
-        <v>6.4</v>
-      </c>
-      <c r="AS21">
-        <v>27</v>
-      </c>
-      <c r="AT21">
-        <v>20</v>
-      </c>
-      <c r="AU21">
-        <v>27</v>
-      </c>
-      <c r="AV21">
-        <v>6.8</v>
-      </c>
-      <c r="AW21">
-        <v>55</v>
-      </c>
-      <c r="AX21">
-        <v>7.6</v>
-      </c>
-      <c r="AY21">
-        <v>180</v>
-      </c>
-      <c r="AZ21">
-        <v>5.8</v>
-      </c>
-      <c r="BA21">
-        <v>22</v>
-      </c>
-      <c r="BB21">
-        <v>7.2</v>
-      </c>
       <c r="BC21">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BD21">
-        <v>7.8</v>
+        <v>3.95</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>140</v>
+      <c r="BF21">
+        <v>33116223</v>
       </c>
       <c r="BG21">
         <v>4082025</v>
@@ -5164,17 +4864,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>180</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>220</v>
+      <c r="BJ21">
+        <v>1.22627535</v>
+      </c>
+      <c r="BK21">
+        <v>1.226275395</v>
+      </c>
+      <c r="BL21">
+        <v>1.226275434</v>
+      </c>
+      <c r="BM21">
+        <v>1.226275359</v>
       </c>
     </row>
   </sheetData>
